--- a/linreg/rifreg2bw_coefs_2_blk1.xlsx
+++ b/linreg/rifreg2bw_coefs_2_blk1.xlsx
@@ -153,13 +153,13 @@
         <v>0.084312763419763542</v>
       </c>
       <c r="C2">
-        <v>0.0057353713097788471</v>
+        <v>0.0056609618364461753</v>
       </c>
       <c r="D2">
-        <v>0.073071360547935491</v>
+        <v>0.073217204090059246</v>
       </c>
       <c r="E2">
-        <v>0.095554166291591594</v>
+        <v>0.095408322749467839</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.058117896472462419</v>
       </c>
       <c r="C3">
-        <v>0.0039444821797297207</v>
+        <v>0.0037979955943588145</v>
       </c>
       <c r="D3">
-        <v>0.050386703990302976</v>
+        <v>0.050673817972811667</v>
       </c>
       <c r="E3">
-        <v>0.065849088954621854</v>
+        <v>0.065561974972113163</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.15250891758436341</v>
       </c>
       <c r="C4">
-        <v>0.0064077659554371089</v>
+        <v>0.0070964437292743579</v>
       </c>
       <c r="D4">
-        <v>0.13994961240204029</v>
+        <v>0.13859979494708694</v>
       </c>
       <c r="E4">
-        <v>0.16506822276668653</v>
+        <v>0.16641804022163989</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.096766527738666966</v>
       </c>
       <c r="C5">
-        <v>0.0049297176183495809</v>
+        <v>0.0050843459837167588</v>
       </c>
       <c r="D5">
-        <v>0.087104271946003009</v>
+        <v>0.086801200059406933</v>
       </c>
       <c r="E5">
-        <v>0.10642878353133092</v>
+        <v>0.106731855417927</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.20974982388392938</v>
       </c>
       <c r="C6">
-        <v>0.0069714046664834436</v>
+        <v>0.007542896022194252</v>
       </c>
       <c r="D6">
-        <v>0.19608577944710906</v>
+        <v>0.19496564890623913</v>
       </c>
       <c r="E6">
-        <v>0.22341386832074969</v>
+        <v>0.22453399886161962</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.13656176646142132</v>
       </c>
       <c r="C7">
-        <v>0.0055400045208577773</v>
+        <v>0.005333893564933097</v>
       </c>
       <c r="D7">
-        <v>0.1257033471933896</v>
+        <v>0.12610732505419078</v>
       </c>
       <c r="E7">
-        <v>0.14742018572945303</v>
+        <v>0.14701620786865185</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.24855512879647398</v>
       </c>
       <c r="C8">
-        <v>0.0073987692403513893</v>
+        <v>0.0079659267190836745</v>
       </c>
       <c r="D8">
-        <v>0.23405344419853533</v>
+        <v>0.2329418081132954</v>
       </c>
       <c r="E8">
-        <v>0.26305681339441267</v>
+        <v>0.26416844947965257</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.17928078762011962</v>
       </c>
       <c r="C9">
-        <v>0.0063948687053198916</v>
+        <v>0.0065003685768248278</v>
       </c>
       <c r="D9">
-        <v>0.1667468329446409</v>
+        <v>0.16654005299830493</v>
       </c>
       <c r="E9">
-        <v>0.19181474229559833</v>
+        <v>0.19202152224193431</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.30068492244426942</v>
       </c>
       <c r="C10">
-        <v>0.0082662197043885787</v>
+        <v>0.0093611833809891555</v>
       </c>
       <c r="D10">
-        <v>0.28448302357755795</v>
+        <v>0.28233688043287641</v>
       </c>
       <c r="E10">
-        <v>0.31688682131098089</v>
+        <v>0.31903296445566243</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.19830738910660314</v>
       </c>
       <c r="C11">
-        <v>0.0065611492736212763</v>
+        <v>0.0075037762274986989</v>
       </c>
       <c r="D11">
-        <v>0.18544752420488811</v>
+        <v>0.18359997360452074</v>
       </c>
       <c r="E11">
-        <v>0.21116725400831818</v>
+        <v>0.21301480460868555</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.31316148490562656</v>
       </c>
       <c r="C12">
-        <v>0.0086058947580686766</v>
+        <v>0.01014152948556128</v>
       </c>
       <c r="D12">
-        <v>0.29629381848565878</v>
+        <v>0.29328395431064341</v>
       </c>
       <c r="E12">
-        <v>0.33002915132559435</v>
+        <v>0.33303901550060971</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.23215990882782003</v>
       </c>
       <c r="C13">
-        <v>0.0074329862523527359</v>
+        <v>0.0084919689494189713</v>
       </c>
       <c r="D13">
-        <v>0.21759124181000591</v>
+        <v>0.21551563373440893</v>
       </c>
       <c r="E13">
-        <v>0.24672857584563415</v>
+        <v>0.24880418392123113</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.31103789567969087</v>
       </c>
       <c r="C14">
-        <v>0.0095339011189001007</v>
+        <v>0.010856566510857141</v>
       </c>
       <c r="D14">
-        <v>0.29235132464025437</v>
+        <v>0.28975888315172121</v>
       </c>
       <c r="E14">
-        <v>0.32972446671912736</v>
+        <v>0.33231690820766052</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.24197938083247658</v>
       </c>
       <c r="C15">
-        <v>0.008212845947058579</v>
+        <v>0.0084218199647003462</v>
       </c>
       <c r="D15">
-        <v>0.22588218734803711</v>
+        <v>0.22547259788089202</v>
       </c>
       <c r="E15">
-        <v>0.25807657431691605</v>
+        <v>0.25848616378406114</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.22868254055170717</v>
       </c>
       <c r="C16">
-        <v>0.009577376166102677</v>
+        <v>0.011107220759918631</v>
       </c>
       <c r="D16">
-        <v>0.20991075785044808</v>
+        <v>0.20691224241326073</v>
       </c>
       <c r="E16">
-        <v>0.24745432325296626</v>
+        <v>0.25045283869015361</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.21518186096199579</v>
       </c>
       <c r="C17">
-        <v>0.0095388219732001865</v>
+        <v>0.010200149358761684</v>
       </c>
       <c r="D17">
-        <v>0.19648575197541249</v>
+        <v>0.19518954905737837</v>
       </c>
       <c r="E17">
-        <v>0.2338779699485791</v>
+        <v>0.23517417286661321</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>0.090853010465894959</v>
       </c>
       <c r="C18">
-        <v>0.010604929133876504</v>
+        <v>0.010415933085649904</v>
       </c>
       <c r="D18">
-        <v>0.070067210491997683</v>
+        <v>0.070437645221424219</v>
       </c>
       <c r="E18">
-        <v>0.11163881043979224</v>
+        <v>0.1112683757103657</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.14367656437257392</v>
       </c>
       <c r="C19">
-        <v>0.011637177473741787</v>
+        <v>0.011149136666402118</v>
       </c>
       <c r="D19">
-        <v>0.12086767466307283</v>
+        <v>0.12182423556226543</v>
       </c>
       <c r="E19">
-        <v>0.16648545408207502</v>
+        <v>0.16552889318288241</v>
       </c>
     </row>
   </sheetData>
